--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -181,6 +181,12 @@
     <t>dataset_type</t>
   </si>
   <si>
+    <t>HiFi-Slide</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -301,12 +307,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
-    <t>HiFi-Slides</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -619,7 +619,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:11:53-08:00</t>
+    <t>2023-11-24T09:46:06-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -800,7 +800,7 @@
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S2" t="s">
         <v>145</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>148</v>

--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -277,6 +277,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -496,6 +502,18 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
   </si>
   <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025096</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -535,6 +553,12 @@
     <t>https://identifiers.org/RRID:SCR_023729</t>
   </si>
   <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
     <t>Chromium Controller</t>
   </si>
   <si>
@@ -583,6 +607,18 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
+    <t>Discovery Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025097</t>
+  </si>
+  <si>
+    <t>ST5020 Multistainer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025021</t>
+  </si>
+  <si>
     <t>Chromium iX</t>
   </si>
   <si>
@@ -619,7 +655,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:46:06-08:00</t>
+    <t>2024-03-19T12:41:56-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -718,25 +754,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="18.53125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="17.37109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="14.96484375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="13.8046875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="16.42578125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="18.27734375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="17.12109375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="15.05859375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="26.43359375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="25.2734375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="15.984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="12.91015625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="11.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="14.16796875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="15.765625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.765625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="12.98828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="22.80078125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="21.80078125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -753,63 +789,63 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="S2" t="s">
-        <v>145</v>
+      <c r="S2" t="s" s="20">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -847,10 +883,10 @@
       <formula1>'permeabilization_time_unit'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -867,38 +903,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.40234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
+      <c r="A1" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" t="s">
-        <v>152</v>
+      <c r="B2" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -908,274 +944,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1192,19 +1236,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
+      <c r="A1" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
+      <c r="A2" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1221,19 +1265,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
+      <c r="A1" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
+      <c r="A2" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1250,11 +1294,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
+      <c r="A1" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1271,63 +1315,63 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>86</v>
+      <c r="A1" t="s" s="0">
+        <v>88</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>87</v>
+      <c r="A2" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>88</v>
+      <c r="A3" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>89</v>
+      <c r="A4" t="s" s="0">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>90</v>
+      <c r="A5" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>91</v>
+      <c r="A6" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>92</v>
+      <c r="A7" t="s" s="0">
+        <v>94</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>93</v>
+      <c r="A8" t="s" s="0">
+        <v>95</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>94</v>
+      <c r="A9" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>95</v>
+      <c r="A10" t="s" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>96</v>
+      <c r="A11" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>97</v>
+      <c r="A12" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1344,11 +1388,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" t="s">
-        <v>101</v>
+      <c r="A1" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1358,66 +1402,82 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>104</v>
+      <c r="A1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
+      <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>108</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
+      <c r="A3" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>110</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
+      <c r="A4" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
+      <c r="A5" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>114</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
+      <c r="A6" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>116</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
+      <c r="A7" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1427,122 +1487,146 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
+      <c r="A1" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>125</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
+      <c r="A2" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>110</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
+      <c r="A3" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>127</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
+      <c r="A4" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>129</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
+      <c r="A5" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>131</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
+      <c r="A6" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>133</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
-        <v>129</v>
+      <c r="A7" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>135</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
+      <c r="A8" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
+      <c r="A9" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" t="s">
-        <v>135</v>
+      <c r="A10" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
+      <c r="A11" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s">
-        <v>139</v>
+      <c r="A12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
+      <c r="A13" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" t="s">
-        <v>143</v>
+      <c r="A14" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="171">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -229,6 +229,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -325,6 +331,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -397,18 +409,18 @@
     <t>mapped_area_unit</t>
   </si>
   <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
+  </si>
+  <si>
     <t>um^2</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0010001</t>
   </si>
   <si>
-    <t>mm^2</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
-  </si>
-  <si>
     <t>spot_size_value</t>
   </si>
   <si>
@@ -436,13 +448,28 @@
     <t>A1</t>
   </si>
   <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Lane 1</t>
+  </si>
+  <si>
     <t>Lane 2</t>
   </si>
   <si>
     <t>Lane 3</t>
   </si>
   <si>
-    <t>Lane 1</t>
+    <t>Lane 4</t>
+  </si>
+  <si>
+    <t>Lane 5</t>
   </si>
   <si>
     <t>Lane 6</t>
@@ -451,24 +478,9 @@
     <t>Lane 7</t>
   </si>
   <si>
-    <t>Lane 4</t>
-  </si>
-  <si>
-    <t>Lane 5</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>Lane 8</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>permeabilization_time_value</t>
   </si>
   <si>
@@ -625,6 +637,12 @@
     <t>https://identifiers.org/RRID:SCR_024536</t>
   </si>
   <si>
+    <t>Chromium Connect</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025146</t>
+  </si>
+  <si>
     <t>M5 Sprayer</t>
   </si>
   <si>
@@ -655,7 +673,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-19T12:41:56-07:00</t>
+    <t>2024-08-03T11:48:52-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -789,49 +807,49 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -839,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="S2" t="s" s="20">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -886,7 +904,7 @@
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$17</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -911,16 +929,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -928,13 +946,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1220,6 +1238,22 @@
       </c>
       <c r="B34" t="s" s="0">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1237,18 +1271,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1266,18 +1300,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1295,10 +1329,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1316,62 +1350,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1389,10 +1423,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1410,74 +1444,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1495,138 +1529,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -83,11 +83,13 @@
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) For Visium, this is the area of spots that was covered by tissue
-within the captured area, not the total possible captured area which is fixed.
-For GeoMx this would be the area of the AOI being captured. For HiFi this is the
-summed area of the ROIs in a single flowcell lane. For CosMx, Xenium and
-Resolve, this is the area of the FOV (aka ROI) region being captured.</t>
+        <t>For Visium, this is the area of spots that was covered by tissue within the
+captured area, not the total possible captured area which is fixed. For GeoMx
+this would be the area of the AOI being captured. For HiFi this is the summed
+area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
+area of the FOV (aka ROI) region being captured. For Xenium this is the total
+area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
+number of beads.</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
@@ -673,7 +675,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:48:52-07:00</t>
+    <t>2024-10-17T13:02:21-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -309,6 +309,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -333,6 +339,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -675,7 +687,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-10-17T13:02:21-07:00</t>
+    <t>2025-01-08T12:48:51-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -809,49 +821,49 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -859,13 +871,13 @@
         <v>10</v>
       </c>
       <c r="S2" t="s" s="20">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -931,16 +943,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -948,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +976,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1256,6 +1268,22 @@
       </c>
       <c r="B36" t="s" s="0">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1273,18 +1301,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1302,18 +1330,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1331,10 +1359,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1352,62 +1380,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1425,10 +1453,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1446,74 +1474,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1531,146 +1559,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -50,11 +50,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="181">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -255,10 +255,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -357,6 +357,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -411,6 +417,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>contributors_path</t>
   </si>
   <si>
@@ -687,7 +705,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:48:51-08:00</t>
+    <t>2025-04-24T10:54:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -821,49 +839,49 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -871,13 +889,13 @@
         <v>10</v>
       </c>
       <c r="S2" t="s" s="20">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -943,16 +961,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2">
@@ -960,13 +978,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +994,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,6 +1302,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1301,18 +1343,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1330,18 +1372,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1359,10 +1401,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1380,62 +1422,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1453,10 +1495,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1474,74 +1516,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1559,146 +1601,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -159,6 +159,20 @@
     </comment>
     <comment ref="S1" authorId="1">
       <text>
+        <t>A semicolon separated list of non-shared files to be included in the dataset.
+The path assumes the files are located in the "TOP/non-global/" directory. For
+example, for the file is
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
+field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
+these files will be copied to the appropriate locations within the respective
+dataset directory tree. This field is used for internal HuBMAP processing.
+Examples for GeoMx and PhenoCycler are provided in the File Locations
+documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1">
+      <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
@@ -169,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="184">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -249,24 +263,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>CosMx</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>SIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
-    <t>SIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -327,6 +341,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -687,6 +707,9 @@
     <t>https://identifiers.org/RRID:SCR_023732</t>
   </si>
   <si>
+    <t>non_global_files</t>
+  </si>
+  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -705,7 +728,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:54:03-07:00</t>
+    <t>2025-06-16T16:44:00-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -764,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -788,6 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -798,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -822,7 +846,8 @@
     <col min="16" max="16" style="17" width="21.80078125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" style="18" width="25.0859375" customWidth="true" bestFit="true"/>
     <col min="18" max="18" style="19" width="24.57421875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="16.91796875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="13.33984375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -839,63 +864,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="S2" t="s" s="20">
-        <v>173</v>
+      <c r="T2" t="s" s="21">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -961,16 +989,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
@@ -978,13 +1006,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1326,6 +1354,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1343,18 +1379,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1372,18 +1408,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1401,10 +1437,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1422,62 +1458,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1495,10 +1531,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1516,74 +1552,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1601,146 +1637,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -83,13 +83,13 @@
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>For Visium, this is the area of spots that was covered by tissue within the
-captured area, not the total possible captured area which is fixed. For GeoMx
-this would be the area of the AOI being captured. For HiFi this is the summed
-area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
-area of the FOV (aka ROI) region being captured. For Xenium this is the total
-area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
-number of beads.</t>
+        <t>(Required) For Visium, this is the area of spots that was covered by tissue
+within the captured area, not the total possible captured area which is fixed.
+For GeoMx this would be the area of the AOI being captured. For HiFi this is the
+summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, this
+is the area of the FOV (aka ROI) region being captured. For Xenium this is the
+total area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is
+the number of beads.</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -209,34 +209,166 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -245,42 +377,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>CosMx Transcriptomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -305,16 +407,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -323,30 +419,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -377,18 +455,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -401,12 +467,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -419,34 +479,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>contributors_path</t>
@@ -728,7 +770,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-16T16:44:00-07:00</t>
+    <t>2025-08-15T09:10:26-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -864,66 +906,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T2" t="s" s="21">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -989,30 +1031,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,6 +1404,62 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1379,18 +1477,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1408,18 +1506,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +1535,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1458,62 +1556,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1531,10 +1629,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1552,74 +1650,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1637,146 +1735,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/visium-no-probes/latest/visium-no-probes.xlsx
+++ b/visium-no-probes/latest/visium-no-probes.xlsx
@@ -29,73 +29,72 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) For Visium, this is the area of spots that was covered by tissue
-within the captured area, not the total possible captured area which is fixed.
-For GeoMx this would be the area of the AOI being captured. For HiFi this is the
-summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, this
-is the area of the FOV (aka ROI) region being captured. For Xenium this is the
-total area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is
-the number of beads.</t>
+        <t>(Required) The mapped area value, which refers to the specific area covered or
+captured in various assays. For Visium, it is the area of spots covered by
+tissue within the captured area, excluding the total possible captured area. For
+GeoMx, it refers to the area of the AOI being captured. In HiFi, it is the
+summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, it
+indicates the area of the FOV (also known as ROI) region being captured. For
+Xenium, it is the total area of the FOV regions (also known as ROI) being
+captured. For Stereo-Seq, this value represents the number of beads. Example:
+42.25</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) The unit of measurement for the mapping area. For Visium and GeoMx
-this is typically um^2.</t>
+        <t>(Required) The unit of measurement for the mapped area value. If mapping area is
+not specified, this field may be left blank. Example: um^2</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
@@ -145,36 +144,40 @@
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>The manufacturer of the instrument used to prepare (staining/processing) the
-sample for the assay. If an automatic slide staining method was indicated this
-field should list the manufacturer of the instrument.</t>
+        <t>The company that manufactures the instrument used to prepare the sample (e.g.,
+for staining or other processing steps) prior to the assay. If the instrument
+was custom-built or developed internally, enter "In-House". If no sample
+preparation occurred, enter "Not applicable". Example: 10X Genomics</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>Manufacturers of a staining system instrument may offer various versions
-(models) of that instrument with different features. Differences in features or
-sensitivities may be relevant to processing or interpretation of the data.</t>
+        <t>The specific model of the instrument used for sample preparation, such as
+staining. Manufacturers may offer multiple models with varying features or
+sensitivities, which can influence how the sample is processed and how the
+resulting data is interpreted. If no sample preparation occurred, enter "Not
+applicable". Example: Chromium X</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>A semicolon separated list of non-shared files to be included in the dataset.
-The path assumes the files are located in the "TOP/non-global/" directory. For
-example, for the file is
-TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
-field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
-these files will be copied to the appropriate locations within the respective
-dataset directory tree. This field is used for internal HuBMAP processing.
-Examples for GeoMx and PhenoCycler are provided in the File Locations
-documentation:
-https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
+        <t>Specifies a semicolon-separated list of non-global files that are to be included
+in the dataset. The file paths assume that the files are located in the
+"TOP/non-global/" directory. For instance, if the file is located at
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson, the value for
+this field would be "./lab_processed/images/1-tissue-boundary.geojson". Once
+ingested, these files will be copied to their appropriate locations within the
+respective dataset directory tree. This field is intended for internal HuBMAP
+processing. Examples for GeoMx and PhenoCycler are provided in the File
+Locations documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee
+Example: ./lab_processed/images/1-tissue-boundary.geojson</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -183,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="200">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -209,6 +212,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
     <t>Visium (no probes)</t>
   </si>
   <si>
@@ -770,7 +779,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-08-15T09:10:26-07:00</t>
+    <t>2025-10-21T13:33:07-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -906,66 +915,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s" s="21">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$49</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1031,30 +1040,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1460,6 +1469,14 @@
       </c>
       <c r="B49" t="s" s="0">
         <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1477,18 +1494,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1506,18 +1523,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1535,10 +1552,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1556,62 +1573,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1629,10 +1646,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1650,74 +1667,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1735,146 +1752,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
